--- a/Exercises/Perfect_Doctor.xlsx
+++ b/Exercises/Perfect_Doctor.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Mixtape_tracks/Assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/UT-Causal-Inference/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673C66E6-8AA4-6B4D-95EB-BCF49F3E42BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2811EE86-389F-1249-A67F-EE34F0337549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1060" windowWidth="24840" windowHeight="25820" activeTab="1" xr2:uid="{083BD555-0A53-1B4B-AE70-5F7A5361EDB7}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="36800" windowHeight="21100" activeTab="3" xr2:uid="{083BD555-0A53-1B4B-AE70-5F7A5361EDB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="together" sheetId="1" r:id="rId1"/>
+    <sheet name="in class" sheetId="2" r:id="rId2"/>
+    <sheet name="homework part a" sheetId="3" r:id="rId3"/>
+    <sheet name="homework part b" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="53">
   <si>
     <t>Person</t>
   </si>
@@ -120,6 +122,78 @@
   </si>
   <si>
     <t>Avg(Y |D=1) - Avg(Y |D=0)</t>
+  </si>
+  <si>
+    <t>TE = Y1-Y0 for each person</t>
+  </si>
+  <si>
+    <t>if TE&gt;0, the 'perfect dr.' assigns D=1 (vent)</t>
+  </si>
+  <si>
+    <t>If TE&lt;=0, he assigns no vent (D=0)</t>
+  </si>
+  <si>
+    <t>Y=DY1 + (1-D)Y0</t>
+  </si>
+  <si>
+    <t>The perfect dr knows whether the treatment helps or hurts, and</t>
+  </si>
+  <si>
+    <t>assigns the treatment based on whether it helps (TE&gt;0), or hurts (TE&lt;=0)</t>
+  </si>
+  <si>
+    <t>SDO = E[Y|D=1] - E[Y|D=0]</t>
+  </si>
+  <si>
+    <t>Comparing treatment to control, the people</t>
+  </si>
+  <si>
+    <t>on the vents' health is 1.34 units higher than</t>
+  </si>
+  <si>
+    <t>the people not on the vents.</t>
+  </si>
+  <si>
+    <t>"Decomposition of the SDO into its three parts"</t>
+  </si>
+  <si>
+    <t>Pi = E[D=1]</t>
+  </si>
+  <si>
+    <t>SDO = ATE + E[Y0|D=1] - E[Y0|D=0] + (1-pi)(ATT-ATU)</t>
+  </si>
+  <si>
+    <t>1. Calculate TE</t>
+  </si>
+  <si>
+    <t>3. Calculate the SDO</t>
+  </si>
+  <si>
+    <t>2. Perfect Doctor treatment assignment (D and Y)</t>
+  </si>
+  <si>
+    <t>4. Calculate</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>5. Decompose the SDO and show that it is equal to the formula</t>
+  </si>
+  <si>
+    <t>E[Y|D=1]</t>
+  </si>
+  <si>
+    <t>E[Y|D=0]</t>
+  </si>
+  <si>
+    <t>E[Y0|D=1]</t>
+  </si>
+  <si>
+    <t>E[Y0|D=0]</t>
+  </si>
+  <si>
+    <t>SDO DECOMPOSITION</t>
   </si>
 </sst>
 </file>
@@ -143,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +248,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -254,11 +334,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -275,6 +392,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,15 +711,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72EDE92-11F1-504D-AA85-77E1FD099BAB}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection sqref="A1:F13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,8 +741,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -634,12 +765,18 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <f>E2*C2+(1-E2)*B2</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -656,12 +793,12 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F13" si="1">E3*C3+(1-E3)*B3</f>
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -678,12 +815,15 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -700,12 +840,12 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -722,12 +862,15 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -744,12 +887,15 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -766,12 +912,12 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -788,12 +934,18 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -810,12 +962,15 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -832,12 +987,15 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -854,12 +1012,12 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -876,12 +1034,12 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -889,14 +1047,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
-        <f>AVERAGE(F3,F5,F10:F11,F13) - AVERAGE(F2,F4,F6:F9,F12)</f>
+        <f>B17-C17</f>
         <v>1.3428571428571425</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f>AVERAGE(F13,F10:F11,F5,F3)</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(F12,F6:F9,F4,F2)</f>
+        <v>6.8571428571428568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>F20+A20-B20+(1-C20)*(D20-E20)</f>
+        <v>1.3428571428571425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>19</v>
       </c>
@@ -916,49 +1087,67 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <f>AVERAGE(B3,B5,B10:B11,B13)</f>
+        <f>AVERAGE(B3,B5,B10,B11,B13)</f>
         <v>3</v>
       </c>
       <c r="B20" s="13">
-        <f>AVERAGE(B2,B4,B6:B9,B12)</f>
+        <f>AVERAGE(B12,B9,B8,B7,B6,B4,B2)</f>
         <v>6.8571428571428568</v>
       </c>
       <c r="C20" s="12">
-        <f>SUM(E2:E13)/COUNT(E2:E13)</f>
+        <f>AVERAGE(E2:E13)</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="D20" s="15">
-        <f>AVERAGE(D3,D5,D10:D11,D13)</f>
+        <f>AVERAGE(D3,D5,D10,D11,D13)</f>
         <v>5.2</v>
       </c>
       <c r="E20" s="13">
-        <f>AVERAGE(D2,D4,D6:D9,D12)</f>
+        <f>AVERAGE(D12,D9,D8,D7,D6,D4,D2)</f>
         <v>-3.2857142857142856</v>
       </c>
       <c r="F20" s="9">
         <f>AVERAGE(D2:D13)</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <f>5/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f>F20+ A20-B20+(1-C20)*(D20-E20)</f>
-        <v>1.3428571428571425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -970,15 +1159,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658F0CAF-38BA-064D-B720-EB93DBD0638C}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,8 +1186,23 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1008,9 +1212,39 @@
       <c r="C2" s="6">
         <v>10</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="7">
+        <f>C2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>E2*C2+(1-E2)*B2</f>
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <f>G16-H16</f>
+        <v>-3.0285714285714285</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(E2:E13)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(D2:D13)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(D2:D3,D7,D9:D11,D13)</f>
+        <v>-2.4285714285714284</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(D4:D6,D8,D12)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1020,9 +1254,19 @@
       <c r="C3" s="6">
         <v>15</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D13" si="0">C3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="1">E3*C3+(1-E3)*B3</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1032,9 +1276,23 @@
       <c r="C4" s="6">
         <v>12</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <f>I2+I16-J16+(1-H2)*(K2-J2)</f>
+        <v>-3.0285714285714294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1044,9 +1302,19 @@
       <c r="C5" s="6">
         <v>11</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1056,9 +1324,19 @@
       <c r="C6" s="6">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1068,9 +1346,19 @@
       <c r="C7" s="6">
         <v>11</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1080,9 +1368,19 @@
       <c r="C8" s="6">
         <v>7</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1092,9 +1390,19 @@
       <c r="C9" s="6">
         <v>11</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1104,9 +1412,19 @@
       <c r="C10" s="6">
         <v>6</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1116,9 +1434,19 @@
       <c r="C11" s="6">
         <v>9</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1128,9 +1456,19 @@
       <c r="C12" s="6">
         <v>13</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1140,7 +1478,594 @@
       <c r="C13" s="6">
         <v>15</v>
       </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE(F4:F6,F8,F12)</f>
+        <v>10.4</v>
+      </c>
+      <c r="H16">
+        <f>AVERAGE(F2:F3,F7,F9:F11,F13)</f>
+        <v>13.428571428571429</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(B4:B6,B8,B12)</f>
+        <v>7.8</v>
+      </c>
+      <c r="J16">
+        <f>AVERAGE(B2:B3,B7,B9:B11,B13)</f>
+        <v>13.428571428571429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0224CB-C32E-2849-913B-D3BC1D805D51}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
+        <v>80</v>
+      </c>
+      <c r="C2" s="6">
+        <v>81</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
+        <v>88</v>
+      </c>
+      <c r="C3" s="6">
+        <v>46</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>68</v>
+      </c>
+      <c r="C4" s="6">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>62</v>
+      </c>
+      <c r="C5" s="6">
+        <v>77</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="G5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>71</v>
+      </c>
+      <c r="C6" s="6">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>61</v>
+      </c>
+      <c r="C7" s="6">
+        <v>58</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
+        <v>100</v>
+      </c>
+      <c r="C8" s="6">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>94</v>
+      </c>
+      <c r="C9" s="6">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="G9" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <v>51</v>
+      </c>
+      <c r="C10" s="6">
+        <v>66</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <v>93</v>
+      </c>
+      <c r="C11" s="6">
+        <v>57</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
+        <v>73</v>
+      </c>
+      <c r="C12" s="6">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
+        <v>73</v>
+      </c>
+      <c r="C13" s="6">
+        <v>65</v>
+      </c>
       <c r="D13" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AACC999-4150-B944-BB59-31B4A186C121}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="G5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="G9" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Exercises/Perfect_Doctor.xlsx
+++ b/Exercises/Perfect_Doctor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/UT-Causal-Inference/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2811EE86-389F-1249-A67F-EE34F0337549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CA58D0-7573-924C-B041-64E4B1D15D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="36800" windowHeight="21100" activeTab="3" xr2:uid="{083BD555-0A53-1B4B-AE70-5F7A5361EDB7}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="49340" windowHeight="28300" activeTab="1" xr2:uid="{083BD555-0A53-1B4B-AE70-5F7A5361EDB7}"/>
   </bookViews>
   <sheets>
     <sheet name="together" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,18 +244,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -277,28 +301,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -311,6 +313,19 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -322,37 +337,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -366,6 +350,34 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -375,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -385,18 +397,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,11 +733,12 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -758,17 +778,8 @@
       <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
-        <f>C2-B2</f>
-        <v>-4</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <f>E2*C2+(1-E2)*B2</f>
-        <v>6</v>
-      </c>
+      <c r="D2" s="7"/>
+      <c r="F2" s="14"/>
       <c r="H2" t="s">
         <v>32</v>
       </c>
@@ -786,17 +797,8 @@
       <c r="C3" s="6">
         <v>8</v>
       </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D13" si="0">C3-B3</f>
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" ref="F3:F13" si="1">E3*C3+(1-E3)*B3</f>
-        <v>8</v>
-      </c>
+      <c r="D3" s="7"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -808,17 +810,8 @@
       <c r="C4" s="6">
         <v>5</v>
       </c>
-      <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="D4" s="7"/>
+      <c r="F4" s="14"/>
       <c r="H4" t="s">
         <v>29</v>
       </c>
@@ -833,17 +826,8 @@
       <c r="C5" s="6">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
+      <c r="D5" s="7"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -855,17 +839,8 @@
       <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
+      <c r="D6" s="7"/>
+      <c r="F6" s="14"/>
       <c r="H6" t="s">
         <v>33</v>
       </c>
@@ -880,17 +855,8 @@
       <c r="C7" s="6">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="D7" s="7"/>
+      <c r="F7" s="14"/>
       <c r="H7" t="s">
         <v>34</v>
       </c>
@@ -905,17 +871,8 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+      <c r="D8" s="7"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -927,17 +884,8 @@
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
+      <c r="D9" s="7"/>
+      <c r="F9" s="14"/>
       <c r="H9" t="s">
         <v>35</v>
       </c>
@@ -955,17 +903,8 @@
       <c r="C10" s="6">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="D10" s="7"/>
+      <c r="F10" s="14"/>
       <c r="I10" t="s">
         <v>37</v>
       </c>
@@ -980,17 +919,8 @@
       <c r="C11" s="6">
         <v>7</v>
       </c>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
+      <c r="D11" s="7"/>
+      <c r="F11" s="14"/>
       <c r="I11" t="s">
         <v>38</v>
       </c>
@@ -1005,17 +935,8 @@
       <c r="C12" s="6">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
+      <c r="D12" s="7"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1027,127 +948,82 @@
       <c r="C13" s="6">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="D13" s="7"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <f>B17-C17</f>
-        <v>1.3428571428571425</v>
-      </c>
-      <c r="B17">
-        <f>AVERAGE(F13,F10:F11,F5,F3)</f>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C17">
-        <f>AVERAGE(F12,F6:F9,F4,F2)</f>
-        <v>6.8571428571428568</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>F20+A20-B20+(1-C20)*(D20-E20)</f>
-        <v>1.3428571428571425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <f>AVERAGE(B3,B5,B10,B11,B13)</f>
-        <v>3</v>
-      </c>
-      <c r="B20" s="13">
-        <f>AVERAGE(B12,B9,B8,B7,B6,B4,B2)</f>
-        <v>6.8571428571428568</v>
-      </c>
-      <c r="C20" s="12">
-        <f>AVERAGE(E2:E13)</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D20" s="15">
-        <f>AVERAGE(D3,D5,D10,D11,D13)</f>
-        <v>5.2</v>
-      </c>
-      <c r="E20" s="13">
-        <f>AVERAGE(D12,D9,D8,D7,D6,D4,D2)</f>
-        <v>-3.2857142857142856</v>
-      </c>
-      <c r="F20" s="9">
-        <f>AVERAGE(D2:D13)</f>
-        <v>0.25</v>
-      </c>
+    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
       <c r="H20" t="s">
         <v>40</v>
       </c>
-      <c r="I20">
-        <f>5/12</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
       <c r="F22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1161,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658F0CAF-38BA-064D-B720-EB93DBD0638C}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:J15"/>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1186,7 +1062,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -1212,37 +1088,7 @@
       <c r="C2" s="6">
         <v>10</v>
       </c>
-      <c r="D2" s="7">
-        <f>C2-B2</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>E2*C2+(1-E2)*B2</f>
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <f>G16-H16</f>
-        <v>-3.0285714285714285</v>
-      </c>
-      <c r="H2">
-        <f>AVERAGE(E2:E13)</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="I2">
-        <f>AVERAGE(D2:D13)</f>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="J2">
-        <f>AVERAGE(D2:D3,D7,D9:D11,D13)</f>
-        <v>-2.4285714285714284</v>
-      </c>
-      <c r="K2">
-        <f>AVERAGE(D4:D6,D8,D12)</f>
-        <v>2.6</v>
-      </c>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1254,17 +1100,7 @@
       <c r="C3" s="6">
         <v>15</v>
       </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D13" si="0">C3-B3</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F13" si="1">E3*C3+(1-E3)*B3</f>
-        <v>15</v>
-      </c>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1276,21 +1112,7 @@
       <c r="C4" s="6">
         <v>12</v>
       </c>
-      <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <f>I2+I16-J16+(1-H2)*(K2-J2)</f>
-        <v>-3.0285714285714294</v>
-      </c>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1302,17 +1124,7 @@
       <c r="C5" s="6">
         <v>11</v>
       </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1324,17 +1136,7 @@
       <c r="C6" s="6">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1346,17 +1148,7 @@
       <c r="C7" s="6">
         <v>11</v>
       </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1368,17 +1160,7 @@
       <c r="C8" s="6">
         <v>7</v>
       </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1390,17 +1172,7 @@
       <c r="C9" s="6">
         <v>11</v>
       </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1412,17 +1184,7 @@
       <c r="C10" s="6">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>-9</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1434,17 +1196,7 @@
       <c r="C11" s="6">
         <v>9</v>
       </c>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1456,17 +1208,7 @@
       <c r="C12" s="6">
         <v>13</v>
       </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1478,17 +1220,7 @@
       <c r="C13" s="6">
         <v>15</v>
       </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
+      <c r="D13" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1511,13 +1243,13 @@
       <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="e">
         <f>AVERAGE(F4:F6,F8,F12)</f>
-        <v>10.4</v>
-      </c>
-      <c r="H16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" t="e">
         <f>AVERAGE(F2:F3,F7,F9:F11,F13)</f>
-        <v>13.428571428571429</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I16">
         <f>AVERAGE(B4:B6,B8,B12)</f>
@@ -1589,7 +1321,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -1616,11 +1348,11 @@
         <v>81</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1681,10 +1413,10 @@
         <v>83</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1736,7 +1468,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1820,7 +1552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AACC999-4150-B944-BB59-31B4A186C121}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -1845,7 +1577,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -1872,11 +1604,11 @@
         <v>5</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1937,10 +1669,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1992,7 +1724,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">

--- a/Exercises/Perfect_Doctor.xlsx
+++ b/Exercises/Perfect_Doctor.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/UT-Causal-Inference/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CA58D0-7573-924C-B041-64E4B1D15D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B7C2A3-A2F2-1541-A84C-F912C25E60D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="49340" windowHeight="28300" activeTab="1" xr2:uid="{083BD555-0A53-1B4B-AE70-5F7A5361EDB7}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="49340" windowHeight="28300" activeTab="3" xr2:uid="{083BD555-0A53-1B4B-AE70-5F7A5361EDB7}"/>
   </bookViews>
   <sheets>
     <sheet name="together" sheetId="1" r:id="rId1"/>
-    <sheet name="in class" sheetId="2" r:id="rId2"/>
+    <sheet name="dataset" sheetId="6" r:id="rId2"/>
     <sheet name="homework part a" sheetId="3" r:id="rId3"/>
     <sheet name="homework part b" sheetId="5" r:id="rId4"/>
+    <sheet name="in class" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="91">
   <si>
     <t>Person</t>
   </si>
@@ -127,39 +128,18 @@
     <t>TE = Y1-Y0 for each person</t>
   </si>
   <si>
-    <t>if TE&gt;0, the 'perfect dr.' assigns D=1 (vent)</t>
-  </si>
-  <si>
-    <t>If TE&lt;=0, he assigns no vent (D=0)</t>
-  </si>
-  <si>
     <t>Y=DY1 + (1-D)Y0</t>
   </si>
   <si>
-    <t>The perfect dr knows whether the treatment helps or hurts, and</t>
-  </si>
-  <si>
     <t>assigns the treatment based on whether it helps (TE&gt;0), or hurts (TE&lt;=0)</t>
   </si>
   <si>
     <t>SDO = E[Y|D=1] - E[Y|D=0]</t>
   </si>
   <si>
-    <t>Comparing treatment to control, the people</t>
-  </si>
-  <si>
-    <t>on the vents' health is 1.34 units higher than</t>
-  </si>
-  <si>
-    <t>the people not on the vents.</t>
-  </si>
-  <si>
     <t>"Decomposition of the SDO into its three parts"</t>
   </si>
   <si>
-    <t>Pi = E[D=1]</t>
-  </si>
-  <si>
     <t>SDO = ATE + E[Y0|D=1] - E[Y0|D=0] + (1-pi)(ATT-ATU)</t>
   </si>
   <si>
@@ -194,6 +174,141 @@
   </si>
   <si>
     <t>SDO DECOMPOSITION</t>
+  </si>
+  <si>
+    <t>The individual return to a PHD. For eeryone not just the people that did it. Everyone has a treatment effect in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"hypothetical infinite worlds space". </t>
+  </si>
+  <si>
+    <t>HURTS means your happiness/joy/etc in 2022 is lower</t>
+  </si>
+  <si>
+    <t>with the PhD than it would have been with the MS only</t>
+  </si>
+  <si>
+    <t>The perfect adviser knows whether the treatment helps or hurts, and</t>
+  </si>
+  <si>
+    <t>If TE&lt;=0, the perfect adviser assigns D=0 (MS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if TE&gt;0, the 'perfect adviser.' assigns D=1 (PhD) </t>
+  </si>
+  <si>
+    <t>Columns  B - D only exist on infinite worlds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can't see these. </t>
+  </si>
+  <si>
+    <t>Columns E-F exist on OUR</t>
+  </si>
+  <si>
+    <t>world.  They are called "data"</t>
+  </si>
+  <si>
+    <t>SDO is the estimate of the ATE, but the ATE lives in potential outcome space which no one can see here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on Earth.  WE calculate using only two columns of data. </t>
+  </si>
+  <si>
+    <t>The SDO is 1.34 but the true ATE is only 0.25.  Our estimate of the ATE is 5x larger than the true ATE. We are WAY off!</t>
+  </si>
+  <si>
+    <t>But why are we so off? What is the specific cause that our number is approximately 5x too large? The decomposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tells us. </t>
+  </si>
+  <si>
+    <t>E[Y0|D=1] exists in the infinite world space. There is a group of people that WILL BE getting their pHD in reality, but up there</t>
+  </si>
+  <si>
+    <t>haven't yet. But regardless, we know their names, and we can average their potential outcome of "happiness without a PhD".</t>
+  </si>
+  <si>
+    <t>The SDO is equal to 1.34. That's the left hand side.  And it ALWAYS equals that right hand side, even though we can't see the right</t>
+  </si>
+  <si>
+    <t>hand side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E[Y|D=1] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We know this SDO of 1.34 is actually the sum of the true ATE (which we don't know), selection bias </t>
+  </si>
+  <si>
+    <t>which we don't know, and the weighted difference between the ATT and the ATU (which we don't know).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But this decomposition is not a theorem.  It's an identity -- it always is true. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And this is actually kind of key to causal inference bc now we know problems we have to resolve on our side. </t>
+  </si>
+  <si>
+    <t>Selection bias and heterogenous treatment effect bias.</t>
+  </si>
+  <si>
+    <t>selection bias</t>
+  </si>
+  <si>
+    <t>What is selection bias?</t>
+  </si>
+  <si>
+    <t>1. E[Y0|D=PhD]</t>
+  </si>
+  <si>
+    <t>2. E[Y0|D=MS]</t>
+  </si>
+  <si>
+    <t>Happiness who has a masters degree had they gotten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a masters degree. </t>
+  </si>
+  <si>
+    <t>The reason I didn't say "it's the happiness of a masters</t>
+  </si>
+  <si>
+    <t>students" is because I really want you, uncle, to hear me</t>
+  </si>
+  <si>
+    <t>use potential outcomes as my words. Because selection bias is all about potential outcomes, not reality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"What does it mean that the first one is </t>
+  </si>
+  <si>
+    <t>smaller than the second one by 2.25?"</t>
+  </si>
+  <si>
+    <t>Well, these two groups of people are different on average had they not gotten the PhD.  The ones who wouldn't have gotten</t>
+  </si>
+  <si>
+    <t>Selection bias is all about differences between the treatment and control group with respect to Y0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection bias does not mean the treatment group has males and the control group has females. </t>
+  </si>
+  <si>
+    <t>E[Y0|Males] = E[Y0|Females]</t>
+  </si>
+  <si>
+    <t>no selection bias</t>
+  </si>
+  <si>
+    <t>Selection bias is not about differences</t>
+  </si>
+  <si>
+    <t>in covariates. It's about differences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in Y0. </t>
   </si>
 </sst>
 </file>
@@ -217,7 +332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +393,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -301,6 +422,28 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -313,19 +456,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -337,6 +467,37 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -383,11 +544,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -397,25 +639,103 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,229 +1050,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72EDE92-11F1-504D-AA85-77E1FD099BAB}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
     <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
         <v>26</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="39">
+        <v>6</v>
+      </c>
+      <c r="C2" s="40">
+        <v>2</v>
+      </c>
+      <c r="D2" s="46">
+        <f>C2-B2</f>
+        <v>-4</v>
+      </c>
+      <c r="E2" s="58">
+        <v>0</v>
+      </c>
+      <c r="F2" s="53">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40">
+        <v>8</v>
+      </c>
+      <c r="D3" s="46">
+        <f t="shared" ref="D3:D13" si="0">C3-B3</f>
         <v>6</v>
       </c>
-      <c r="B2" s="5">
+      <c r="E3" s="56">
+        <v>1</v>
+      </c>
+      <c r="F3" s="54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="39">
+        <v>10</v>
+      </c>
+      <c r="C4" s="40">
+        <v>5</v>
+      </c>
+      <c r="D4" s="46">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="E4" s="58">
+        <v>0</v>
+      </c>
+      <c r="F4" s="53">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="39">
+        <v>7</v>
+      </c>
+      <c r="C5" s="40">
+        <v>8</v>
+      </c>
+      <c r="D5" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="56">
+        <v>1</v>
+      </c>
+      <c r="F5" s="54">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="39">
+        <v>8</v>
+      </c>
+      <c r="C6" s="40">
+        <v>5</v>
+      </c>
+      <c r="D6" s="46">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="E6" s="58">
+        <v>0</v>
+      </c>
+      <c r="F6" s="53">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="39">
+        <v>10</v>
+      </c>
+      <c r="C7" s="40">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
+      <c r="D7" s="46">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E7" s="58">
+        <v>0</v>
+      </c>
+      <c r="F7" s="53">
+        <v>10</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="36"/>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="39">
         <v>2</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="F2" s="14"/>
-      <c r="H2" t="s">
+      <c r="C8" s="40">
+        <v>2</v>
+      </c>
+      <c r="D8" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="58">
+        <v>0</v>
+      </c>
+      <c r="F8" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="39">
+        <v>4</v>
+      </c>
+      <c r="C9" s="40">
+        <v>1</v>
+      </c>
+      <c r="D9" s="46">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0</v>
+      </c>
+      <c r="F9" s="53">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="39">
+        <v>2</v>
+      </c>
+      <c r="C10" s="40">
+        <v>10</v>
+      </c>
+      <c r="D10" s="46">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="56">
+        <v>1</v>
+      </c>
+      <c r="F10" s="54">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="39">
+        <v>2</v>
+      </c>
+      <c r="C11" s="40">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="D11" s="46">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="56">
+        <v>1</v>
+      </c>
+      <c r="F11" s="54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="39">
+        <v>8</v>
+      </c>
+      <c r="C12" s="40">
+        <v>4</v>
+      </c>
+      <c r="D12" s="46">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E12" s="58">
+        <v>0</v>
+      </c>
+      <c r="F12" s="53">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="41">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C13" s="42">
         <v>8</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D13" s="50">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="57">
+        <v>1</v>
+      </c>
+      <c r="F13" s="55">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="F4" s="14"/>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="F6" s="14"/>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="F7" s="14"/>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="F9" s="14"/>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="F10" s="14"/>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="F11" s="14"/>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
@@ -960,9 +1431,26 @@
         <v>28</v>
       </c>
       <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59">
+        <f>B17-C17</f>
+        <v>1.3428571428571425</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(F3,F5,F10:F11,F13)</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(F12,F6:F9,F4,F2)</f>
+        <v>6.8571428571428568</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -984,49 +1472,78 @@
       <c r="F19" s="27" t="s">
         <v>24</v>
       </c>
+      <c r="H19" s="60" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="15">
+        <f>AVERAGE(B3,B5,B10:B11,B13)</f>
+        <v>3</v>
+      </c>
+      <c r="B20" s="16">
+        <f>AVERAGE(B2,B4,B6:B9,B12)</f>
+        <v>6.8571428571428568</v>
+      </c>
+      <c r="C20" s="17">
+        <f>AVERAGE(E2:E13)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D20" s="18">
+        <f>AVERAGE(D3,D5,D10,D11,D13)</f>
+        <v>5.2</v>
+      </c>
+      <c r="E20" s="18">
+        <f>AVERAGE(D12,D6:D9,D4,D2)</f>
+        <v>-3.2857142857142856</v>
+      </c>
+      <c r="F20" s="19">
+        <f>AVERAGE(D2:D13)</f>
+        <v>0.25</v>
+      </c>
       <c r="H20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+        <v>65</v>
+      </c>
+    </row>
     <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="61">
+        <f>F20+A20-B20+(1-C20)*(D20-E20)</f>
+        <v>1.3428571428571425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" s="34"/>
+    </row>
+    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
         <v>27</v>
       </c>
+      <c r="B27" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1034,257 +1551,167 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658F0CAF-38BA-064D-B720-EB93DBD0638C}">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C881D0-6E6F-A44B-B6DA-7FCADFFBA9AD}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A6" zoomScale="348" zoomScaleNormal="348" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="47">
+        <v>0</v>
+      </c>
+      <c r="B2" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B3" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="47">
+        <v>0</v>
+      </c>
+      <c r="B4" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="49">
+        <v>1</v>
+      </c>
+      <c r="B5" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="49">
+        <v>0</v>
+      </c>
+      <c r="B6" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="49">
+        <v>0</v>
+      </c>
+      <c r="B7" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="49">
+        <v>0</v>
+      </c>
+      <c r="B8" s="48">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="49">
+        <v>0</v>
+      </c>
+      <c r="B9" s="48">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="13" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="49">
+        <v>1</v>
+      </c>
+      <c r="B10" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="49">
+        <v>1</v>
+      </c>
+      <c r="B11" s="48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="49">
+        <v>0</v>
+      </c>
+      <c r="B12" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51">
+        <v>1</v>
+      </c>
+      <c r="B13" s="52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
         <v>42</v>
       </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" t="e">
-        <f>AVERAGE(F4:F6,F8,F12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" t="e">
-        <f>AVERAGE(F2:F3,F7,F9:F11,F13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16">
-        <f>AVERAGE(B4:B6,B8,B12)</f>
-        <v>7.8</v>
-      </c>
-      <c r="J16">
-        <f>AVERAGE(B2:B3,B7,B9:B11,B13)</f>
-        <v>13.428571428571429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>47</v>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f>D18-E18</f>
+        <v>1.3428571428571425</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(B3,B5,B10:B11,B13)</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E18">
+        <f>AVERAGE(B12,B6:B9,B4,B2)</f>
+        <v>6.8571428571428568</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1296,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0224CB-C32E-2849-913B-D3BC1D805D51}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="330" zoomScaleNormal="330" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1321,7 +1748,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -1347,12 +1774,37 @@
       <c r="C2" s="6">
         <v>81</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="D2" s="7">
+        <f>C2-B2</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>E2*C2+(1-E2)*B2</f>
+        <v>81</v>
+      </c>
+      <c r="G2" s="13">
+        <f>G16-H16</f>
+        <v>-4.5</v>
+      </c>
+      <c r="H2" s="13">
+        <f>AVERAGE(E2:E13)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I2" s="13">
+        <f>AVERAGE(D2:D13)</f>
+        <v>-20.583333333333332</v>
+      </c>
+      <c r="J2" s="13">
+        <f>AVERAGE(D3:D4,D7:D9,D11:D13)</f>
+        <v>-36.25</v>
+      </c>
+      <c r="K2" s="13">
+        <f>AVERAGE(D2,D5:D6,D10)</f>
+        <v>10.75</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1364,7 +1816,17 @@
       <c r="C3" s="6">
         <v>46</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D13" si="0">C3-B3</f>
+        <v>-42</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="1">E3*C3+(1-E3)*B3</f>
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1376,7 +1838,17 @@
       <c r="C4" s="6">
         <v>33</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1388,18 +1860,28 @@
       <c r="C5" s="6">
         <v>77</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
       <c r="G5" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1412,11 +1894,27 @@
       <c r="C6" s="6">
         <v>83</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13">
+        <f>AVERAGE(B2,B5:B6,B10)</f>
+        <v>66</v>
+      </c>
+      <c r="J6" s="13">
+        <f>AVERAGE(B3:B4,B7:B9,B11:B13)</f>
+        <v>81.25</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1428,7 +1926,17 @@
       <c r="C7" s="6">
         <v>58</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1440,7 +1948,17 @@
       <c r="C8" s="6">
         <v>34</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>-66</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1452,9 +1970,19 @@
       <c r="C9" s="6">
         <v>30</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>-64</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
       <c r="G9" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1467,8 +1995,21 @@
       <c r="C10" s="6">
         <v>66</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="G10" s="13">
+        <f>I2+I6-J6+(1-H2)*(K2-J2)</f>
+        <v>-4.4999999999999929</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1480,7 +2021,17 @@
       <c r="C11" s="6">
         <v>57</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>-36</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1492,7 +2043,17 @@
       <c r="C12" s="6">
         <v>37</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>-36</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1504,26 +2065,50 @@
       <c r="C13" s="6">
         <v>65</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE(F2,F5:F6,F10)</f>
+        <v>76.75</v>
+      </c>
+      <c r="H16">
+        <f>AVERAGE(F3:F4,F7:F9,F11:F13)</f>
+        <v>81.25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1535,12 +2120,12 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1550,10 +2135,506 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AACC999-4150-B944-BB59-31B4A186C121}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="300" zoomScaleNormal="300" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7">
+        <f>C2-B2</f>
+        <v>-8</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>E2*C2+(1-E2)*B2</f>
+        <v>13</v>
+      </c>
+      <c r="G2" s="13">
+        <f>G6-H6</f>
+        <v>4</v>
+      </c>
+      <c r="H2" s="13">
+        <f>AVERAGE(E2:E13)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I2" s="13">
+        <f>AVERAGE(D2:D13)</f>
+        <v>-0.75</v>
+      </c>
+      <c r="J2" s="13">
+        <f>AVERAGE(D2:D8,D10)</f>
+        <v>-4.25</v>
+      </c>
+      <c r="K2" s="13">
+        <f>AVERAGE(D9,D11:D13)</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D13" si="0">C3-B3</f>
+        <v>-5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="1">E3*C3+(1-E3)*B3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G6" s="13">
+        <f>AVERAGE(F9,F11:F13)</f>
+        <v>14.25</v>
+      </c>
+      <c r="H6" s="13">
+        <f>AVERAGE(F2:F8,F10)</f>
+        <v>10.25</v>
+      </c>
+      <c r="I6" s="13">
+        <f>AVERAGE(B9,B11:B13)</f>
+        <v>8</v>
+      </c>
+      <c r="J6" s="13">
+        <f>AVERAGE(B2:B8,B10)</f>
+        <v>10.25</v>
+      </c>
+      <c r="K6">
+        <f>I6-J6</f>
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G10" s="13">
+        <f>I2+I6-J6+(1-H2)*(K2-J2)</f>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="I10">
+        <f>-0.75+-2.25</f>
+        <v>-3</v>
+      </c>
+      <c r="J10">
+        <f>(1-H2)*(K2-J2)</f>
+        <v>7.0000000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658F0CAF-38BA-064D-B720-EB93DBD0638C}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1577,7 +2658,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -1598,27 +2679,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -1627,10 +2703,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -1642,47 +2718,31 @@
         <v>8</v>
       </c>
       <c r="C5" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="G5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -1691,10 +2751,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -1703,38 +2763,34 @@
         <v>13</v>
       </c>
       <c r="B9" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="G9" s="8" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -1743,10 +2799,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12" s="6">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7"/>
     </row>
@@ -1755,31 +2811,43 @@
         <v>17</v>
       </c>
       <c r="B13" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
         <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1791,12 +2859,12 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
